--- a/medicine/Œil et vue/Ophtalmoplégie/Ophtalmoplégie.xlsx
+++ b/medicine/Œil et vue/Ophtalmoplégie/Ophtalmoplégie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ophtalmopl%C3%A9gie</t>
+          <t>Ophtalmoplégie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une ophtalmoplégie ou paralysie oculomotrice est une paralysie du mouvement de l'œil. Elle est souvent signe d'une atteinte d'un nerf crânien.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ophtalmopl%C3%A9gie</t>
+          <t>Ophtalmoplégie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ophtalmoplégie peut résulter de troubles de diverses parties de l'œil et du système nerveux :
 Infection autour de l'œil. L'ophtalmoplégie est une découverte importante dans la cellulite orbitaire.
